--- a/docs/Tablas.xlsx
+++ b/docs/Tablas.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D7551-7B35-044F-A5F6-89F631FF20D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{815625B0-5B7F-AB4D-A6E2-791606B26749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Productos " sheetId="1" r:id="rId1"/>
-    <sheet name="Proveedores" sheetId="2" r:id="rId2"/>
-    <sheet name="Vendedores " sheetId="3" r:id="rId3"/>
-    <sheet name="Categorías" sheetId="4" r:id="rId4"/>
-    <sheet name="Usuarios " sheetId="5" r:id="rId5"/>
-    <sheet name="Listas" sheetId="6" r:id="rId6"/>
+    <sheet name="Productos E" sheetId="1" r:id="rId1"/>
+    <sheet name="Productos D" sheetId="7" r:id="rId2"/>
+    <sheet name="Fabricante" sheetId="2" r:id="rId3"/>
+    <sheet name="Vendedores " sheetId="3" r:id="rId4"/>
+    <sheet name="Categorías" sheetId="4" r:id="rId5"/>
+    <sheet name="Usuarios " sheetId="5" r:id="rId6"/>
+    <sheet name="Listas" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>producto</t>
   </si>
@@ -53,19 +54,124 @@
     <t xml:space="preserve">Descripción </t>
   </si>
   <si>
-    <t>idproducto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descripción del producto </t>
   </si>
   <si>
-    <t>upc</t>
-  </si>
-  <si>
     <t>Código Universal de Producto (UPC)</t>
   </si>
   <si>
     <t xml:space="preserve">Referencia </t>
+  </si>
+  <si>
+    <t>idFabricante</t>
+  </si>
+  <si>
+    <t>idProducto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código del Fabricante </t>
+  </si>
+  <si>
+    <t>Relación con tabla Fabricantes</t>
+  </si>
+  <si>
+    <t>idRubro</t>
+  </si>
+  <si>
+    <t>idSubRubro</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>Razón Social</t>
+  </si>
+  <si>
+    <t>rsFabricante</t>
+  </si>
+  <si>
+    <t>idProducto</t>
+  </si>
+  <si>
+    <t>7790398100088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producto </t>
+  </si>
+  <si>
+    <t>Manteca La Paulina</t>
+  </si>
+  <si>
+    <t>idSubrubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad </t>
+  </si>
+  <si>
+    <t>gramos</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>Puré de tomates Arcor</t>
+  </si>
+  <si>
+    <t>7790580129279</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>176.13</t>
+  </si>
+  <si>
+    <t>7792540260138</t>
+  </si>
+  <si>
+    <t>Azúcar Ledesma Clásica</t>
+  </si>
+  <si>
+    <t>669.00</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7798031154160</t>
+  </si>
+  <si>
+    <t>Fideos Knorr Tallarines</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>629.00</t>
+  </si>
+  <si>
+    <t>7500435019231</t>
+  </si>
+  <si>
+    <t>864.72</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Detergente Magistral Ultra Limón</t>
   </si>
 </sst>
 </file>
@@ -97,15 +203,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,17 +225,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -439,89 +578,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3C3890-EFB7-F346-A7C9-0C432D90897B}">
-  <dimension ref="C2:G5"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.49609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.43359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.609375" style="3"/>
+    <col min="4" max="4" width="8.609375" style="2"/>
+    <col min="5" max="5" width="31.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.76953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.49609375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.609375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D5" s="5">
         <v>10</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{FC30AE0A-F152-C749-8E16-D7C336798836}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{FC30AE0A-F152-C749-8E16-D7C336798836}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6052E4C6-7016-A14F-9211-C43326A5B7FD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84908D3-8DF8-084D-B27A-7B5D3DAD9C48}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.52734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.19140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.02734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.609375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6052E4C6-7016-A14F-9211-C43326A5B7FD}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.49609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.43359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.609375" style="3"/>
+    <col min="4" max="4" width="8.609375" style="2"/>
+    <col min="5" max="5" width="31.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.76953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.609375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AFF5E5-5D86-6947-9653-B2E1B1652B71}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -533,7 +995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F5838A-492E-C34E-AAD2-42EA23F0102F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -545,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DAB053-B944-7541-9781-5A90776D7BCD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -557,11 +1019,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FA7502-05C7-024C-8E2B-5FACB973007D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
